--- a/socialmedias.xlsx
+++ b/socialmedias.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellemisiaszek/Documents/College/Senior Year/befriend/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,10 +474,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -491,7 +486,7 @@
     <col min="5" max="5" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -506,7 +501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -523,7 +518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -540,7 +535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -557,7 +552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -574,7 +569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -591,7 +586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -608,7 +603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -625,15 +620,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -642,7 +637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -659,15 +654,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -679,5 +674,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>